--- a/arian-scripts/Kubrick MI Data.xlsx
+++ b/arian-scripts/Kubrick MI Data.xlsx
@@ -8,26 +8,345 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Arian\Documents\Kubrick\Projects\Internal MI Copmetitor Profiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784108A3-0FE0-44F2-BB31-7769A0F59E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1986A25-FA0B-4C2C-BD7C-C8EA8D8BBF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="meshAI" sheetId="1" r:id="rId1"/>
+    <sheet name="bob" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="100">
+  <si>
+    <t>Date of Collection</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Website_URL</t>
+  </si>
+  <si>
+    <t>Public/Private</t>
+  </si>
+  <si>
+    <t>Practices</t>
+  </si>
+  <si>
+    <t>Practices_URL</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Services_URL</t>
+  </si>
+  <si>
+    <t>Solutions</t>
+  </si>
+  <si>
+    <t>Solutions_URL</t>
+  </si>
+  <si>
+    <t>Previous Close</t>
+  </si>
+  <si>
+    <t>52 Week Range</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Full Time Employees</t>
+  </si>
+  <si>
+    <t>Market Cap</t>
+  </si>
+  <si>
+    <t>Fiscal Year Ends</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>Company NPS</t>
+  </si>
+  <si>
+    <t>Company Glassdoor</t>
+  </si>
+  <si>
+    <t>MI Summary</t>
+  </si>
+  <si>
+    <t>Competitive Threat Level</t>
+  </si>
+  <si>
+    <t>Market Share</t>
+  </si>
+  <si>
+    <t>Pricing Strategy</t>
+  </si>
+  <si>
+    <t>Target Market_1</t>
+  </si>
+  <si>
+    <t>Target Market_2</t>
+  </si>
+  <si>
+    <t>Channels-to-Market_1 (Social Media)</t>
+  </si>
+  <si>
+    <t>Channels-to-Market_2 (Sales)</t>
+  </si>
+  <si>
+    <t>Channels-to-Market_3 (Promotions/Sponsorship)</t>
+  </si>
+  <si>
+    <t>Market Differentiation (USP)</t>
+  </si>
+  <si>
+    <t>Revenue Trends</t>
+  </si>
+  <si>
+    <t>Profitability</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Revenue per Employee</t>
+  </si>
+  <si>
+    <t>Customer Satisfaction</t>
+  </si>
+  <si>
+    <t>Reviews &amp; Ratings</t>
+  </si>
+  <si>
+    <t>Customer Complaints</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>Tech Advancements</t>
+  </si>
+  <si>
+    <t>Patents &amp; Intellectual Property</t>
+  </si>
+  <si>
+    <t>Emerging Trends</t>
+  </si>
+  <si>
+    <t>Potential Threats</t>
+  </si>
+  <si>
+    <t>Long-term Strategy</t>
+  </si>
+  <si>
+    <t>Recent Activities</t>
+  </si>
+  <si>
+    <t>Market Responsiveness</t>
+  </si>
+  <si>
+    <t>Key Executives</t>
+  </si>
+  <si>
+    <t>Company Culture</t>
+  </si>
+  <si>
+    <t>Compliance Requirements</t>
+  </si>
+  <si>
+    <t>Legal Issues/Pending Litigations</t>
+  </si>
+  <si>
+    <t>Environmental Impact</t>
+  </si>
+  <si>
+    <t>Social Initiatives</t>
+  </si>
+  <si>
+    <t>meshAI</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>Strategy &amp; Consulting</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services/strategy-and-services</t>
+  </si>
+  <si>
+    <t>Business case discovery and validation</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Consumer Electronics</t>
+  </si>
+  <si>
+    <t>Define and accelerate your strategy</t>
+  </si>
+  <si>
+    <t>Align with business outcomes</t>
+  </si>
+  <si>
+    <t>Roadmaps for extracting value from data</t>
+  </si>
+  <si>
+    <t>Design and implement regulatory frameworks</t>
+  </si>
+  <si>
+    <t>Foster a data-driven culture and increase data literacy</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services/ai-enabled-software</t>
+  </si>
+  <si>
+    <t>Create new product centric ways of working that are mapped to business value</t>
+  </si>
+  <si>
+    <t>Prove and evidence product centric approaches by building digital, data &amp; AI enabled products</t>
+  </si>
+  <si>
+    <t>Design and implement scalable product operating models for highly regulated environments</t>
+  </si>
+  <si>
+    <t>Manage the transition from a project to product oriented delivery model</t>
+  </si>
+  <si>
+    <t>Data &amp; Software Engineering</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services/services-data-engineering</t>
+  </si>
+  <si>
+    <t>Lay technical and organisational foundations for turning data into business value</t>
+  </si>
+  <si>
+    <t>Take an iterative and scalable approach to ensure delivery of digital and data products aligned with business outcomes</t>
+  </si>
+  <si>
+    <t>Implement platforms capable of supporting modern data architecture such as streaming, analytics and graph technology</t>
+  </si>
+  <si>
+    <t>Develop automated data management processes to ensure data is of the highest quality for regulatory compliance and to foster innovation across domains</t>
+  </si>
+  <si>
+    <t>Build minimal viable products with the right operating model, which are then scaled across the organisation</t>
+  </si>
+  <si>
+    <t>Cloud Platforms</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services/cloud-platforms</t>
+  </si>
+  <si>
+    <t>Design, build and implement cloud native platforms and data &amp; AI services that are resilient, secure and scalable</t>
+  </si>
+  <si>
+    <t>Establish new ways of building platforms, using modern engineering practices and automation</t>
+  </si>
+  <si>
+    <t>Introduce new tools and engineering standards that enable DevSecOps approaches to be scaled</t>
+  </si>
+  <si>
+    <t>Introduce &amp; scale DevOps &amp; FinOps to accelerate the delivery of platform services in an economical way</t>
+  </si>
+  <si>
+    <t>Data Mesh</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services/data-mesh</t>
+  </si>
+  <si>
+    <t>Modernise your governance with data mesh architectures</t>
+  </si>
+  <si>
+    <t>Design and deploy federated frameworks to support compliance and innovation at scale</t>
+  </si>
+  <si>
+    <t>Build scalable self-service data &amp; analytics platforms</t>
+  </si>
+  <si>
+    <t>Accelerate data product design and implementation</t>
+  </si>
+  <si>
+    <t>Enhance a data-driven culture and literacy to enable your business to extract value</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://www.mesh-ai.com/services/services-ai-and-ml</t>
+  </si>
+  <si>
+    <t>Build complete data foundations for further AI deployment</t>
+  </si>
+  <si>
+    <t>Provide long-term value and competitive advantage by aligning AI, including Generative AI, to business goals</t>
+  </si>
+  <si>
+    <t>Scale AI across your business to make it a capability, not a siloed tool</t>
+  </si>
+  <si>
+    <t>Deliver rapid impact through accelerators and clearly defined roadmaps</t>
+  </si>
+  <si>
+    <t>Design and deploy solutions around business outcomes, including the creative possibilities of Generative AI</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -38,7 +357,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,12 +365,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,13 +709,1264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA64CCB6-4CFE-46FF-AA4B-2B1800570510}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="129.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="28" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45432</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2">
+        <v>189.87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2">
+        <v>150000</v>
+      </c>
+      <c r="P2">
+        <v>2938090000000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2">
+        <v>381623000000</v>
+      </c>
+      <c r="S2">
+        <v>129629000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3">
+        <v>189.87</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3">
+        <v>150000</v>
+      </c>
+      <c r="P3">
+        <v>2938090000000</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3">
+        <v>381623000000</v>
+      </c>
+      <c r="S3">
+        <v>129629000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4">
+        <v>189.87</v>
+      </c>
+      <c r="L4" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>150000</v>
+      </c>
+      <c r="P4">
+        <v>2938090000000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4">
+        <v>381623000000</v>
+      </c>
+      <c r="S4">
+        <v>129629000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5">
+        <v>189.87</v>
+      </c>
+      <c r="L5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5">
+        <v>150000</v>
+      </c>
+      <c r="P5">
+        <v>2938090000000</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5">
+        <v>381623000000</v>
+      </c>
+      <c r="S5">
+        <v>129629000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6">
+        <v>189.87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6">
+        <v>150000</v>
+      </c>
+      <c r="P6">
+        <v>2938090000000</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6">
+        <v>381623000000</v>
+      </c>
+      <c r="S6">
+        <v>129629000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7">
+        <v>189.87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>150000</v>
+      </c>
+      <c r="P7">
+        <v>2938090000000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7">
+        <v>381623000000</v>
+      </c>
+      <c r="S7">
+        <v>129629000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/arian-scripts/Kubrick MI Data.xlsx
+++ b/arian-scripts/Kubrick MI Data.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="meshAI" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ten10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpartaGlobal" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -11695,4 +11696,2365 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Date of Collection</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Website_URL</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Public/Private</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Practices</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Practices_URL</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Services_URL</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Solutions</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Solutions_URL</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Previous Close</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="inlineStr">
+        <is>
+          <t>52 Week Range</t>
+        </is>
+      </c>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="inlineStr">
+        <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Full Time Employees</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="inlineStr">
+        <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Fiscal Year Ends</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>EBITDA</t>
+        </is>
+      </c>
+      <c r="T1" s="3" t="inlineStr">
+        <is>
+          <t>Company NPS</t>
+        </is>
+      </c>
+      <c r="U1" s="3" t="inlineStr">
+        <is>
+          <t>Company Glassdoor</t>
+        </is>
+      </c>
+      <c r="V1" s="3" t="inlineStr">
+        <is>
+          <t>MI Summary</t>
+        </is>
+      </c>
+      <c r="W1" s="3" t="inlineStr">
+        <is>
+          <t>Competitive Threat Level</t>
+        </is>
+      </c>
+      <c r="X1" s="3" t="inlineStr">
+        <is>
+          <t>Market Share</t>
+        </is>
+      </c>
+      <c r="Y1" s="3" t="inlineStr">
+        <is>
+          <t>Pricing Strategy</t>
+        </is>
+      </c>
+      <c r="Z1" s="3" t="inlineStr">
+        <is>
+          <t>Target Market_1</t>
+        </is>
+      </c>
+      <c r="AA1" s="3" t="inlineStr">
+        <is>
+          <t>Target Market_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="3" t="inlineStr">
+        <is>
+          <t>Channels-to-Market_1 (Social Media)</t>
+        </is>
+      </c>
+      <c r="AC1" s="3" t="inlineStr">
+        <is>
+          <t>Channels-to-Market_2 (Sales)</t>
+        </is>
+      </c>
+      <c r="AD1" s="3" t="inlineStr">
+        <is>
+          <t>Channels-to-Market_3 (Promotions/Sponsorship)</t>
+        </is>
+      </c>
+      <c r="AE1" s="3" t="inlineStr">
+        <is>
+          <t>Market Differentiation (USP)</t>
+        </is>
+      </c>
+      <c r="AF1" s="3" t="inlineStr">
+        <is>
+          <t>Revenue Trends</t>
+        </is>
+      </c>
+      <c r="AG1" s="3" t="inlineStr">
+        <is>
+          <t>Profitability</t>
+        </is>
+      </c>
+      <c r="AH1" s="3" t="inlineStr">
+        <is>
+          <t>Growth Rate</t>
+        </is>
+      </c>
+      <c r="AI1" s="3" t="inlineStr">
+        <is>
+          <t>Revenue per Employee</t>
+        </is>
+      </c>
+      <c r="AJ1" s="3" t="inlineStr">
+        <is>
+          <t>Customer Satisfaction</t>
+        </is>
+      </c>
+      <c r="AK1" s="3" t="inlineStr">
+        <is>
+          <t>Reviews &amp; Ratings</t>
+        </is>
+      </c>
+      <c r="AL1" s="3" t="inlineStr">
+        <is>
+          <t>Customer Complaints</t>
+        </is>
+      </c>
+      <c r="AM1" s="3" t="inlineStr">
+        <is>
+          <t>Innovation</t>
+        </is>
+      </c>
+      <c r="AN1" s="3" t="inlineStr">
+        <is>
+          <t>Tech Advancements</t>
+        </is>
+      </c>
+      <c r="AO1" s="3" t="inlineStr">
+        <is>
+          <t>Patents &amp; Intellectual Property</t>
+        </is>
+      </c>
+      <c r="AP1" s="3" t="inlineStr">
+        <is>
+          <t>Emerging Trends</t>
+        </is>
+      </c>
+      <c r="AQ1" s="3" t="inlineStr">
+        <is>
+          <t>Potential Threats</t>
+        </is>
+      </c>
+      <c r="AR1" s="3" t="inlineStr">
+        <is>
+          <t>Long-term Strategy</t>
+        </is>
+      </c>
+      <c r="AS1" s="3" t="inlineStr">
+        <is>
+          <t>Recent Activities</t>
+        </is>
+      </c>
+      <c r="AT1" s="3" t="inlineStr">
+        <is>
+          <t>Market Responsiveness</t>
+        </is>
+      </c>
+      <c r="AU1" s="3" t="inlineStr">
+        <is>
+          <t>Key Executives</t>
+        </is>
+      </c>
+      <c r="AV1" s="3" t="inlineStr">
+        <is>
+          <t>Company Culture</t>
+        </is>
+      </c>
+      <c r="AW1" s="3" t="inlineStr">
+        <is>
+          <t>Compliance Requirements</t>
+        </is>
+      </c>
+      <c r="AX1" s="3" t="inlineStr">
+        <is>
+          <t>Legal Issues/Pending Litigations</t>
+        </is>
+      </c>
+      <c r="AY1" s="3" t="inlineStr">
+        <is>
+          <t>Environmental Impact</t>
+        </is>
+      </c>
+      <c r="AZ1" s="3" t="inlineStr">
+        <is>
+          <t>Social Initiatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Business Analysis</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/business-analysis/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/cybersecurity/</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Data</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/data/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Devops</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/devops/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Manual Test</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/manual-test/</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/project-management/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Software Development</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/software-development/</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/careers/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Test Engineering</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://www.spartaglobal.com/our-services/test-engineering/</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/arian-scripts/Kubrick MI Data.xlsx
+++ b/arian-scripts/Kubrick MI Data.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1944" yWindow="2784" windowWidth="26328" windowHeight="12696" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2640" yWindow="3072" windowWidth="26328" windowHeight="12696" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="meshAI" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Ten10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpartaGlobal" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Price Report" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SpartaGlobal" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -17,12 +18,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,7 +36,14 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,10 +78,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -90,7 +121,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +491,7 @@
   </sheetPr>
   <dimension ref="A1:AZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1809,7 +1842,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
@@ -2074,7 +2107,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2334,7 +2367,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2594,7 +2627,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2854,7 +2887,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -3114,7 +3147,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -3374,7 +3407,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -3634,7 +3667,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -3894,7 +3927,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4154,7 +4187,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="n">
+      <c r="A10" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4414,7 +4447,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="n">
+      <c r="A11" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4674,7 +4707,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="n">
+      <c r="A12" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -4934,7 +4967,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="n">
+      <c r="A13" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -5194,7 +5227,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="n">
+      <c r="A14" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -5454,7 +5487,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="n">
+      <c r="A15" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -5714,7 +5747,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="n">
+      <c r="A16" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -5974,7 +6007,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="n">
+      <c r="A17" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -6234,7 +6267,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="n">
+      <c r="A18" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -6494,7 +6527,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="n">
+      <c r="A19" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -6754,7 +6787,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="n">
+      <c r="A20" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -7014,7 +7047,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="n">
+      <c r="A21" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -7274,7 +7307,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="n">
+      <c r="A22" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -7534,7 +7567,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="n">
+      <c r="A23" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -7794,7 +7827,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="n">
+      <c r="A24" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -8054,7 +8087,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="n">
+      <c r="A25" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -8314,7 +8347,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="n">
+      <c r="A26" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -8574,7 +8607,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="n">
+      <c r="A27" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -8834,7 +8867,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="n">
+      <c r="A28" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -9094,7 +9127,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="n">
+      <c r="A29" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -9354,7 +9387,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="5" t="n">
+      <c r="A30" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -9614,7 +9647,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="n">
+      <c r="A31" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -9874,7 +9907,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="5" t="n">
+      <c r="A32" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -10134,7 +10167,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="n">
+      <c r="A33" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -10394,7 +10427,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="n">
+      <c r="A34" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -10654,7 +10687,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="n">
+      <c r="A35" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -10914,7 +10947,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="n">
+      <c r="A36" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -11174,7 +11207,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="n">
+      <c r="A37" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -11434,7 +11467,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="n">
+      <c r="A38" s="4" t="n">
         <v>45433</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -11704,278 +11737,718 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="15.88671875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="22.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="10.33203125" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="13.77734375" bestFit="1" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Date of Collection</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Previous Close</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>%-Change</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>52 Week Range</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>191.04</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6857</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>164.08 - 199.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ten10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nvidia</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>947.8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6394</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>298.06 - 974.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FDM Group (Holdings) PLC</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>435</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2228</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>300.0 - 722.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Capgemini SE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.7634</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>152.25 - 227.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accenture plc</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>305.7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.6739000000000001</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>284.9 - 387.51</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kubrick Group</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SpartaGlobal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Infosys Limited</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.7005</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Technology</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>15.12 - 20.74</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Capco</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BetterGov</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Private</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="18.109375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="34.44140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="12.88671875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="58.44140625" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="10.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="14.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="15.21875" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="13.21875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="14" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="6.6640625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="8" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="18.21875" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="10.77734375" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="14.109375" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="8.33203125" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="7.109375" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="13.109375" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="11.88671875" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="22.21875" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="12.33203125" bestFit="1" customWidth="1" min="24" max="24"/>
+    <col width="14.21875" bestFit="1" customWidth="1" min="25" max="25"/>
+    <col width="15" bestFit="1" customWidth="1" min="26" max="27"/>
+    <col width="32.88671875" bestFit="1" customWidth="1" min="28" max="28"/>
+    <col width="26.33203125" bestFit="1" customWidth="1" min="29" max="29"/>
+    <col width="43.5546875" bestFit="1" customWidth="1" min="30" max="30"/>
+    <col width="25.44140625" bestFit="1" customWidth="1" min="31" max="31"/>
+    <col width="14.5546875" bestFit="1" customWidth="1" min="32" max="32"/>
+    <col width="10.77734375" bestFit="1" customWidth="1" min="33" max="33"/>
+    <col width="11.44140625" bestFit="1" customWidth="1" min="34" max="34"/>
+    <col width="20.5546875" bestFit="1" customWidth="1" min="35" max="35"/>
+    <col width="19.5546875" bestFit="1" customWidth="1" min="36" max="36"/>
+    <col width="16.33203125" bestFit="1" customWidth="1" min="37" max="37"/>
+    <col width="19.21875" bestFit="1" customWidth="1" min="38" max="38"/>
+    <col width="10.21875" bestFit="1" customWidth="1" min="39" max="39"/>
+    <col width="18.21875" bestFit="1" customWidth="1" min="40" max="40"/>
+    <col width="27.21875" bestFit="1" customWidth="1" min="41" max="41"/>
+    <col width="15.109375" bestFit="1" customWidth="1" min="42" max="42"/>
+    <col width="15.33203125" bestFit="1" customWidth="1" min="43" max="43"/>
+    <col width="17.44140625" bestFit="1" customWidth="1" min="44" max="44"/>
+    <col width="14.88671875" bestFit="1" customWidth="1" min="45" max="45"/>
+    <col width="20.88671875" bestFit="1" customWidth="1" min="46" max="46"/>
+    <col width="13.44140625" bestFit="1" customWidth="1" min="47" max="47"/>
+    <col width="15.77734375" bestFit="1" customWidth="1" min="48" max="48"/>
+    <col width="23.33203125" bestFit="1" customWidth="1" min="49" max="49"/>
+    <col width="28" bestFit="1" customWidth="1" min="50" max="50"/>
+    <col width="19.88671875" bestFit="1" customWidth="1" min="51" max="51"/>
+    <col width="14.5546875" bestFit="1" customWidth="1" min="52" max="52"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Date of Collection</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Company Name</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Website_URL</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Public/Private</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Practices</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Practices_URL</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Services</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Services_URL</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Solutions</t>
         </is>
       </c>
-      <c r="J1" s="3" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Solutions_URL</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Previous Close</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>52 Week Range</t>
         </is>
       </c>
-      <c r="M1" s="3" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="N1" s="3" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>Industry</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>Full Time Employees</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="P1" s="5" t="inlineStr">
         <is>
           <t>Market Cap</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="5" t="inlineStr">
         <is>
           <t>Fiscal Year Ends</t>
         </is>
       </c>
-      <c r="R1" s="3" t="inlineStr">
+      <c r="R1" s="5" t="inlineStr">
         <is>
           <t>Revenue</t>
         </is>
       </c>
-      <c r="S1" s="3" t="inlineStr">
+      <c r="S1" s="5" t="inlineStr">
         <is>
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="T1" s="3" t="inlineStr">
+      <c r="T1" s="5" t="inlineStr">
         <is>
           <t>Company NPS</t>
         </is>
       </c>
-      <c r="U1" s="3" t="inlineStr">
+      <c r="U1" s="5" t="inlineStr">
         <is>
           <t>Company Glassdoor</t>
         </is>
       </c>
-      <c r="V1" s="3" t="inlineStr">
+      <c r="V1" s="5" t="inlineStr">
         <is>
           <t>MI Summary</t>
         </is>
       </c>
-      <c r="W1" s="3" t="inlineStr">
+      <c r="W1" s="5" t="inlineStr">
         <is>
           <t>Competitive Threat Level</t>
         </is>
       </c>
-      <c r="X1" s="3" t="inlineStr">
+      <c r="X1" s="5" t="inlineStr">
         <is>
           <t>Market Share</t>
         </is>
       </c>
-      <c r="Y1" s="3" t="inlineStr">
+      <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>Pricing Strategy</t>
         </is>
       </c>
-      <c r="Z1" s="3" t="inlineStr">
+      <c r="Z1" s="5" t="inlineStr">
         <is>
           <t>Target Market_1</t>
         </is>
       </c>
-      <c r="AA1" s="3" t="inlineStr">
+      <c r="AA1" s="5" t="inlineStr">
         <is>
           <t>Target Market_2</t>
         </is>
       </c>
-      <c r="AB1" s="3" t="inlineStr">
+      <c r="AB1" s="5" t="inlineStr">
         <is>
           <t>Channels-to-Market_1 (Social Media)</t>
         </is>
       </c>
-      <c r="AC1" s="3" t="inlineStr">
+      <c r="AC1" s="5" t="inlineStr">
         <is>
           <t>Channels-to-Market_2 (Sales)</t>
         </is>
       </c>
-      <c r="AD1" s="3" t="inlineStr">
+      <c r="AD1" s="5" t="inlineStr">
         <is>
           <t>Channels-to-Market_3 (Promotions/Sponsorship)</t>
         </is>
       </c>
-      <c r="AE1" s="3" t="inlineStr">
+      <c r="AE1" s="5" t="inlineStr">
         <is>
           <t>Market Differentiation (USP)</t>
         </is>
       </c>
-      <c r="AF1" s="3" t="inlineStr">
+      <c r="AF1" s="5" t="inlineStr">
         <is>
           <t>Revenue Trends</t>
         </is>
       </c>
-      <c r="AG1" s="3" t="inlineStr">
+      <c r="AG1" s="5" t="inlineStr">
         <is>
           <t>Profitability</t>
         </is>
       </c>
-      <c r="AH1" s="3" t="inlineStr">
+      <c r="AH1" s="5" t="inlineStr">
         <is>
           <t>Growth Rate</t>
         </is>
       </c>
-      <c r="AI1" s="3" t="inlineStr">
+      <c r="AI1" s="5" t="inlineStr">
         <is>
           <t>Revenue per Employee</t>
         </is>
       </c>
-      <c r="AJ1" s="3" t="inlineStr">
+      <c r="AJ1" s="5" t="inlineStr">
         <is>
           <t>Customer Satisfaction</t>
         </is>
       </c>
-      <c r="AK1" s="3" t="inlineStr">
+      <c r="AK1" s="5" t="inlineStr">
         <is>
           <t>Reviews &amp; Ratings</t>
         </is>
       </c>
-      <c r="AL1" s="3" t="inlineStr">
+      <c r="AL1" s="5" t="inlineStr">
         <is>
           <t>Customer Complaints</t>
         </is>
       </c>
-      <c r="AM1" s="3" t="inlineStr">
+      <c r="AM1" s="5" t="inlineStr">
         <is>
           <t>Innovation</t>
         </is>
       </c>
-      <c r="AN1" s="3" t="inlineStr">
+      <c r="AN1" s="5" t="inlineStr">
         <is>
           <t>Tech Advancements</t>
         </is>
       </c>
-      <c r="AO1" s="3" t="inlineStr">
+      <c r="AO1" s="5" t="inlineStr">
         <is>
           <t>Patents &amp; Intellectual Property</t>
         </is>
       </c>
-      <c r="AP1" s="3" t="inlineStr">
+      <c r="AP1" s="5" t="inlineStr">
         <is>
           <t>Emerging Trends</t>
         </is>
       </c>
-      <c r="AQ1" s="3" t="inlineStr">
+      <c r="AQ1" s="5" t="inlineStr">
         <is>
           <t>Potential Threats</t>
         </is>
       </c>
-      <c r="AR1" s="3" t="inlineStr">
+      <c r="AR1" s="5" t="inlineStr">
         <is>
           <t>Long-term Strategy</t>
         </is>
       </c>
-      <c r="AS1" s="3" t="inlineStr">
+      <c r="AS1" s="5" t="inlineStr">
         <is>
           <t>Recent Activities</t>
         </is>
       </c>
-      <c r="AT1" s="3" t="inlineStr">
+      <c r="AT1" s="5" t="inlineStr">
         <is>
           <t>Market Responsiveness</t>
         </is>
       </c>
-      <c r="AU1" s="3" t="inlineStr">
+      <c r="AU1" s="5" t="inlineStr">
         <is>
           <t>Key Executives</t>
         </is>
       </c>
-      <c r="AV1" s="3" t="inlineStr">
+      <c r="AV1" s="5" t="inlineStr">
         <is>
           <t>Company Culture</t>
         </is>
       </c>
-      <c r="AW1" s="3" t="inlineStr">
+      <c r="AW1" s="5" t="inlineStr">
         <is>
           <t>Compliance Requirements</t>
         </is>
       </c>
-      <c r="AX1" s="3" t="inlineStr">
+      <c r="AX1" s="5" t="inlineStr">
         <is>
           <t>Legal Issues/Pending Litigations</t>
         </is>
       </c>
-      <c r="AY1" s="3" t="inlineStr">
+      <c r="AY1" s="5" t="inlineStr">
         <is>
           <t>Environmental Impact</t>
         </is>
       </c>
-      <c r="AZ1" s="3" t="inlineStr">
+      <c r="AZ1" s="5" t="inlineStr">
         <is>
           <t>Social Initiatives</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="n">
+      <c r="A2" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -12005,67 +12478,67 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -12235,7 +12708,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="n">
+      <c r="A3" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -12265,67 +12738,67 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -12495,7 +12968,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -12525,67 +12998,67 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -12755,7 +13228,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="n">
+      <c r="A5" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -12785,67 +13258,67 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -13015,7 +13488,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -13045,67 +13518,67 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -13275,7 +13748,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="n">
+      <c r="A7" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -13305,67 +13778,67 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -13535,7 +14008,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="n">
+      <c r="A8" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -13565,67 +14038,67 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -13795,7 +14268,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="n">
+      <c r="A9" s="4" t="n">
         <v>45434</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -13825,67 +14298,67 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Services URL</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>No Solutions URL</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Private</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
